--- a/notebooks/assets/test/kerasnh3_st0_01_mountains.xlsx
+++ b/notebooks/assets/test/kerasnh3_st0_01_mountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,56 +459,6 @@
           <t>1007_1014_2021</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>0324_0331_2021</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>0418_0425_2021</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>0717_0724_2021</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>0903_0910_2021</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>1007_1014_2021</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>0324_0331_2021</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>0418_0425_2021</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>0717_0724_2021</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>0903_0910_2021</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>1007_1014_2021</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -517,48 +467,18 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.726</v>
+        <v>2.334</v>
       </c>
       <c r="C2" t="n">
-        <v>2.967</v>
+        <v>1.817</v>
       </c>
       <c r="D2" t="n">
-        <v>5.44</v>
+        <v>2.078</v>
       </c>
       <c r="E2" t="n">
-        <v>7.736</v>
+        <v>2.324</v>
       </c>
       <c r="F2" t="n">
-        <v>4.552</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.546</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.393</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="J2" t="n">
-        <v>6.645</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.096</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.334</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.078</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.324</v>
-      </c>
-      <c r="P2" t="n">
         <v>1.48</v>
       </c>
     </row>
@@ -569,48 +489,18 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.97</v>
+        <v>16.835</v>
       </c>
       <c r="C3" t="n">
-        <v>15.602</v>
+        <v>9.904</v>
       </c>
       <c r="D3" t="n">
-        <v>57.31</v>
+        <v>7.857</v>
       </c>
       <c r="E3" t="n">
-        <v>113.637</v>
+        <v>14.805</v>
       </c>
       <c r="F3" t="n">
-        <v>51.581</v>
-      </c>
-      <c r="G3" t="n">
-        <v>44.019</v>
-      </c>
-      <c r="H3" t="n">
-        <v>11.138</v>
-      </c>
-      <c r="I3" t="n">
-        <v>47.993</v>
-      </c>
-      <c r="J3" t="n">
-        <v>71.491</v>
-      </c>
-      <c r="K3" t="n">
-        <v>20.635</v>
-      </c>
-      <c r="L3" t="n">
-        <v>16.835</v>
-      </c>
-      <c r="M3" t="n">
-        <v>9.904</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7.857</v>
-      </c>
-      <c r="O3" t="n">
-        <v>14.805</v>
-      </c>
-      <c r="P3" t="n">
         <v>4.031</v>
       </c>
     </row>
@@ -621,48 +511,18 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.75</v>
+        <v>0.963</v>
       </c>
       <c r="C4" t="n">
-        <v>0.599</v>
+        <v>0.861</v>
       </c>
       <c r="D4" t="n">
-        <v>0.596</v>
+        <v>0.969</v>
       </c>
       <c r="E4" t="n">
-        <v>0.496</v>
+        <v>0.96</v>
       </c>
       <c r="F4" t="n">
-        <v>0.346</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.663</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.627</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.614</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.725</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.963</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.861</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.969</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="P4" t="n">
         <v>0.975</v>
       </c>
     </row>
@@ -673,48 +533,18 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.66</v>
+        <v>8.196999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>4.05</v>
+        <v>4.031</v>
       </c>
       <c r="D5" t="n">
-        <v>7.537</v>
+        <v>10.073</v>
       </c>
       <c r="E5" t="n">
-        <v>6.583</v>
+        <v>9.247</v>
       </c>
       <c r="F5" t="n">
-        <v>2.601</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7.283</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.559</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8.412000000000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7.581</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.033</v>
-      </c>
-      <c r="L5" t="n">
-        <v>8.196999999999999</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4.031</v>
-      </c>
-      <c r="N5" t="n">
-        <v>10.073</v>
-      </c>
-      <c r="O5" t="n">
-        <v>9.247</v>
-      </c>
-      <c r="P5" t="n">
         <v>4.327</v>
       </c>
     </row>
@@ -725,48 +555,18 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69.718</v>
+        <v>118.847</v>
       </c>
       <c r="C6" t="n">
-        <v>31.198</v>
+        <v>38.357</v>
       </c>
       <c r="D6" t="n">
-        <v>115.937</v>
+        <v>225.879</v>
       </c>
       <c r="E6" t="n">
-        <v>102.716</v>
+        <v>243.268</v>
       </c>
       <c r="F6" t="n">
-        <v>13.809</v>
-      </c>
-      <c r="G6" t="n">
-        <v>78.979</v>
-      </c>
-      <c r="H6" t="n">
-        <v>36.499</v>
-      </c>
-      <c r="I6" t="n">
-        <v>135.704</v>
-      </c>
-      <c r="J6" t="n">
-        <v>123.934</v>
-      </c>
-      <c r="K6" t="n">
-        <v>16.818</v>
-      </c>
-      <c r="L6" t="n">
-        <v>118.847</v>
-      </c>
-      <c r="M6" t="n">
-        <v>38.357</v>
-      </c>
-      <c r="N6" t="n">
-        <v>225.879</v>
-      </c>
-      <c r="O6" t="n">
-        <v>243.268</v>
-      </c>
-      <c r="P6" t="n">
         <v>51.953</v>
       </c>
     </row>
@@ -777,48 +577,18 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.68</v>
+        <v>0.736</v>
       </c>
       <c r="C7" t="n">
-        <v>0.217</v>
+        <v>0.456</v>
       </c>
       <c r="D7" t="n">
-        <v>0.212</v>
+        <v>0.18</v>
       </c>
       <c r="E7" t="n">
-        <v>0.546</v>
+        <v>0.445</v>
       </c>
       <c r="F7" t="n">
-        <v>0.822</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-0.106</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.034</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.736</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.445</v>
-      </c>
-      <c r="P7" t="n">
         <v>0.695</v>
       </c>
     </row>

--- a/notebooks/assets/test/kerasnh3_st0_01_mountains.xlsx
+++ b/notebooks/assets/test/kerasnh3_st0_01_mountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,128 +467,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.334</v>
+        <v>3.27</v>
       </c>
       <c r="C2" t="n">
-        <v>1.817</v>
+        <v>1.893</v>
       </c>
       <c r="D2" t="n">
-        <v>2.078</v>
+        <v>2.558</v>
       </c>
       <c r="E2" t="n">
-        <v>2.324</v>
+        <v>2.866</v>
       </c>
       <c r="F2" t="n">
-        <v>1.48</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MSE_sensor</t>
+          <t>RMSE_sensor</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.835</v>
+        <v>5.382</v>
       </c>
       <c r="C3" t="n">
-        <v>9.904</v>
+        <v>3.069</v>
       </c>
       <c r="D3" t="n">
-        <v>7.857</v>
+        <v>3.421</v>
       </c>
       <c r="E3" t="n">
-        <v>14.805</v>
+        <v>3.621</v>
       </c>
       <c r="F3" t="n">
-        <v>4.031</v>
+        <v>2.154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>R2_sensor</t>
+          <t>MSE_sensor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.963</v>
+        <v>30.434</v>
       </c>
       <c r="C4" t="n">
-        <v>0.861</v>
+        <v>9.657</v>
       </c>
       <c r="D4" t="n">
-        <v>0.969</v>
+        <v>12.184</v>
       </c>
       <c r="E4" t="n">
-        <v>0.96</v>
+        <v>14.442</v>
       </c>
       <c r="F4" t="n">
-        <v>0.975</v>
+        <v>5.497</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MAE_cams</t>
+          <t>R2_sensor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.196999999999999</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>4.031</v>
+        <v>0.864</v>
       </c>
       <c r="D5" t="n">
-        <v>10.073</v>
+        <v>0.952</v>
       </c>
       <c r="E5" t="n">
-        <v>9.247</v>
+        <v>0.967</v>
       </c>
       <c r="F5" t="n">
-        <v>4.327</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MSE_cams</t>
+          <t>MAE_cams</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118.847</v>
+        <v>8.196999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>38.357</v>
+        <v>4.031</v>
       </c>
       <c r="D6" t="n">
-        <v>225.879</v>
+        <v>10.073</v>
       </c>
       <c r="E6" t="n">
-        <v>243.268</v>
+        <v>9.247</v>
       </c>
       <c r="F6" t="n">
-        <v>51.953</v>
+        <v>4.327</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>RMSE_cams</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.169</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.998</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15.436</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7.145</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MSE_cams</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>118.847</v>
+      </c>
+      <c r="C8" t="n">
+        <v>38.357</v>
+      </c>
+      <c r="D8" t="n">
+        <v>225.879</v>
+      </c>
+      <c r="E8" t="n">
+        <v>243.268</v>
+      </c>
+      <c r="F8" t="n">
+        <v>51.953</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>R2_cams</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B9" t="n">
         <v>0.736</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C9" t="n">
         <v>0.456</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D9" t="n">
         <v>0.18</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E9" t="n">
         <v>0.445</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F9" t="n">
         <v>0.695</v>
       </c>
     </row>

--- a/notebooks/assets/test/kerasnh3_st0_01_mountains.xlsx
+++ b/notebooks/assets/test/kerasnh3_st0_01_mountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.27</v>
+        <v>3.271</v>
       </c>
       <c r="C2" t="n">
-        <v>1.893</v>
+        <v>1.791</v>
       </c>
       <c r="D2" t="n">
-        <v>2.558</v>
+        <v>3.798</v>
       </c>
       <c r="E2" t="n">
-        <v>2.866</v>
+        <v>2.802</v>
       </c>
       <c r="F2" t="n">
-        <v>1.79</v>
+        <v>1.795</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.382</v>
+        <v>4.223</v>
       </c>
       <c r="C3" t="n">
-        <v>3.069</v>
+        <v>2.965</v>
       </c>
       <c r="D3" t="n">
-        <v>3.421</v>
+        <v>5.089</v>
       </c>
       <c r="E3" t="n">
-        <v>3.621</v>
+        <v>3.693</v>
       </c>
       <c r="F3" t="n">
-        <v>2.154</v>
+        <v>2.161</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.434</v>
+        <v>19.333</v>
       </c>
       <c r="C4" t="n">
-        <v>9.657</v>
+        <v>9.454000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>12.184</v>
+        <v>27.256</v>
       </c>
       <c r="E4" t="n">
-        <v>14.442</v>
+        <v>13.94</v>
       </c>
       <c r="F4" t="n">
-        <v>5.497</v>
+        <v>5.319</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.957</v>
       </c>
       <c r="C5" t="n">
         <v>0.864</v>
       </c>
       <c r="D5" t="n">
-        <v>0.952</v>
+        <v>0.895</v>
       </c>
       <c r="E5" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.967</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.966</v>
       </c>
     </row>
     <row r="6">

--- a/notebooks/assets/test/kerasnh3_st0_01_mountains.xlsx
+++ b/notebooks/assets/test/kerasnh3_st0_01_mountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.271</v>
+        <v>3.064</v>
       </c>
       <c r="C2" t="n">
-        <v>1.791</v>
+        <v>1.92</v>
       </c>
       <c r="D2" t="n">
-        <v>3.798</v>
+        <v>4.194</v>
       </c>
       <c r="E2" t="n">
-        <v>2.802</v>
+        <v>2.612</v>
       </c>
       <c r="F2" t="n">
-        <v>1.795</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.223</v>
+        <v>3.953</v>
       </c>
       <c r="C3" t="n">
-        <v>2.965</v>
+        <v>3.01</v>
       </c>
       <c r="D3" t="n">
-        <v>5.089</v>
+        <v>5.592</v>
       </c>
       <c r="E3" t="n">
-        <v>3.693</v>
+        <v>3.497</v>
       </c>
       <c r="F3" t="n">
-        <v>2.161</v>
+        <v>2.518</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.333</v>
+        <v>17.004</v>
       </c>
       <c r="C4" t="n">
-        <v>9.454000000000001</v>
+        <v>9.733000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>27.256</v>
+        <v>31.882</v>
       </c>
       <c r="E4" t="n">
-        <v>13.94</v>
+        <v>12.736</v>
       </c>
       <c r="F4" t="n">
-        <v>5.319</v>
+        <v>8.747</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.957</v>
+        <v>0.962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.864</v>
+        <v>0.861</v>
       </c>
       <c r="D5" t="n">
-        <v>0.895</v>
+        <v>0.879</v>
       </c>
       <c r="E5" t="n">
-        <v>0.966</v>
+        <v>0.968</v>
       </c>
       <c r="F5" t="n">
-        <v>0.967</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="6">
